--- a/rifting_article/PTt_data/Girardeau_Fig12_datasets.xlsx
+++ b/rifting_article/PTt_data/Girardeau_Fig12_datasets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joao_macedo/opt/scripts/rifting_article/PTt_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F585C5F-D6BA-0B44-B771-EB302300181B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F448A683-7D6E-434D-84E1-1C6C3DF0A044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52920" yWindow="6120" windowWidth="28240" windowHeight="17240" xr2:uid="{872FEF3A-F353-464B-9F70-88DB03F43417}"/>
+    <workbookView xWindow="18020" yWindow="6020" windowWidth="28240" windowHeight="17240" xr2:uid="{872FEF3A-F353-464B-9F70-88DB03F43417}"/>
   </bookViews>
   <sheets>
     <sheet name="Girardeau_Fig12" sheetId="1" r:id="rId1"/>
@@ -1230,7 +1230,7 @@
   <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B57"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
